--- a/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
+++ b/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="สำนักงานFinal" sheetId="1" r:id="rId4"/>
-    <sheet name="อื่นๆFinal" sheetId="2" r:id="rId5"/>
-    <sheet name="วัสดุ(ชำรุด)" sheetId="3" r:id="rId6"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
   </si>
@@ -52,23 +50,219 @@
     <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>รายการ</t>
-  </si>
-  <si>
-    <t>จำนวนหน่วย</t>
-  </si>
-  <si>
-    <t>ราคาหน่วยต่อบาท</t>
-  </si>
-  <si>
-    <t>จำนวนเงินบาท</t>
+    <t>ชุดคอมพิวเตอร์อเนกประสงค์ ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 ชุด</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/25.1-25.3</t>
+  </si>
+  <si>
+    <t>1.คอมพิวเตอร์ all in one คอมพิวเตอร์
+ ACER6558</t>
+  </si>
+  <si>
+    <t>3 เครื่อง</t>
+  </si>
+  <si>
+    <t>ชุดเครื่องพิมพ์เพื่อการศึกษา ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>XADV1</t>
+  </si>
+  <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/45.1-45.7</t>
+  </si>
+  <si>
+    <t>1.qw cv mouseddq</t>
+  </si>
+  <si>
+    <t>3 จอ</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/88.1-88.5</t>
+  </si>
+  <si>
+    <t>2.เครื่องพิมพ์เลเซอร์</t>
+  </si>
+  <si>
+    <t>5 เครื่อง</t>
+  </si>
+  <si>
+    <t>คีย์บอร์ดใช้งานในห้องเรียน แป้นพิมพ์3000ปุ่ม รุ่น acerQH3000</t>
+  </si>
+  <si>
+    <t>กน.2020</t>
+  </si>
+  <si>
+    <t>4 ตัว</t>
+  </si>
+  <si>
+    <t>1,600.00</t>
+  </si>
+  <si>
+    <t>งบประมาณ58</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/28.1-28.5,28.8,28.11</t>
+  </si>
+  <si>
+    <t>คอมพิวเตอร์ all in one 2020 คอมพิวเตอร์
+ รุ่น ACER6558</t>
+  </si>
+  <si>
+    <t>กพ220</t>
+  </si>
+  <si>
+    <t>7 เครื่อง</t>
+  </si>
+  <si>
+    <t>45,000.00</t>
+  </si>
+  <si>
+    <t>315,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/502-504</t>
+  </si>
+  <si>
+    <t>โต๊ะใช้ทำงานในห้องพัก</t>
+  </si>
+  <si>
+    <t>1 ตัว</t>
+  </si>
+  <si>
+    <t>1,800.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/29.1-29.3,29.5,29.9-29.11</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด45นิ้ว</t>
+  </si>
+  <si>
+    <t>7 จอ</t>
+  </si>
+  <si>
+    <t>36,000.00</t>
+  </si>
+  <si>
+    <t>252,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/33.1-33.2,33.5,33.3,33.9-33.10,33.4,33.6-33.8</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด48นิ้ว</t>
+  </si>
+  <si>
+    <t>56,000.00</t>
+  </si>
+  <si>
+    <t>168,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/90.1-90.2,90.4-90.6</t>
+  </si>
+  <si>
+    <t>5 จอ</t>
+  </si>
+  <si>
+    <t>29,000.00</t>
+  </si>
+  <si>
+    <t>145,000.00</t>
+  </si>
+  <si>
+    <t>87,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/99.1-99.3,99.6-99.7</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด50นิ้ว</t>
+  </si>
+  <si>
+    <t>7566-6006-45/66.1-66.4,66.6,66.9-66.10</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด60นิ้ว</t>
+  </si>
+  <si>
+    <t>29,200.00</t>
+  </si>
+  <si>
+    <t>204,400.00</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด80นิ้ว</t>
+  </si>
+  <si>
+    <t>4 จอ</t>
+  </si>
+  <si>
+    <t>116,800.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/44.1-44.5,44.7-44.9</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด30นิ้ว</t>
+  </si>
+  <si>
+    <t>8 จอ</t>
+  </si>
+  <si>
+    <t>232,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/111.2-111.4,111.8-111.12</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด90นิ้ว</t>
+  </si>
+  <si>
+    <t>233,600.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/222.1-222.2,222.5,222.9-222.10</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด420นิ้ว</t>
+  </si>
+  <si>
+    <t>146,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/333.1-333.3,333.6,333.9-333.12</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด490นิ้ว</t>
+  </si>
+  <si>
+    <t>7566-6006-45/444.1-444.4,444.6,444.9-444.10</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด4990นิ้ว</t>
+  </si>
+  <si>
+    <t>203,000.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=".00"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <b val="0"/>
@@ -77,7 +271,7 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="TH SarabunPSK"/>
     </font>
     <font>
       <b val="0"/>
@@ -86,7 +280,16 @@
       <u val="none"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="TH SarabunPSK"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
     </font>
     <font>
       <b val="1"/>
@@ -95,16 +298,7 @@
       <u val="none"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="TH SarabunPSK"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -148,8 +342,20 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -453,22 +659,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.092041" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.766296" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="46.869507" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="26.315002" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20.423584" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.195251" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23.434753" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.092041" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.306519" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="69.387817" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="71.744385" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="24.613037" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.11438" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="27.231445" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.732788" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.69928" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -490,40 +696,496 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -532,219 +1194,6 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="13.092041" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.766296" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="46.869507" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="26.315002" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20.423584" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.195251" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23.434753" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.092041" bestFit="true" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="13.092041" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.211792" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.10321" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="23.434753" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18.983459" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.092041" bestFit="true" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
+++ b/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
   </si>
@@ -50,210 +50,184 @@
     <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>ชุดคอมพิวเตอร์อเนกประสงค์ ประกอบด้วย</t>
+    <t>7400-010-0002-05-59/26.1-26.5,26.8,26.11</t>
+  </si>
+  <si>
+    <t>คอมใช้เรียนเสริม คอมพิวเตอร์
+ รุ่น ACER6558</t>
+  </si>
+  <si>
+    <t>กพ220</t>
+  </si>
+  <si>
+    <t>7 เครื่อง</t>
+  </si>
+  <si>
+    <t>45,000.00</t>
+  </si>
+  <si>
+    <t>315,000.00</t>
+  </si>
+  <si>
+    <t>งบประมาณ58</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/602-604,606</t>
+  </si>
+  <si>
+    <t>ตู้เก็บเอกสารer ตู้ทำด้วยเหล็กหนาพิเศษ</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>4 ตู้</t>
+  </si>
+  <si>
+    <t>3,500.00</t>
+  </si>
+  <si>
+    <t>14,000.00</t>
+  </si>
+  <si>
+    <t>งบประมาณ69</t>
+  </si>
+  <si>
+    <t>ชุดคอมในห้องทำงาน ประกอบด้วย</t>
+  </si>
+  <si>
     <t>1 ชุด</t>
   </si>
   <si>
-    <t>7400-010-0002-05-59/25.1-25.3</t>
-  </si>
-  <si>
-    <t>1.คอมพิวเตอร์ all in one คอมพิวเตอร์
- ACER6558</t>
-  </si>
-  <si>
-    <t>3 เครื่อง</t>
-  </si>
-  <si>
-    <t>ชุดเครื่องพิมพ์เพื่อการศึกษา ประกอบด้วย</t>
-  </si>
-  <si>
-    <t>XADV1</t>
-  </si>
-  <si>
-    <t>50,000.00</t>
-  </si>
-  <si>
-    <t>7440-010-0001-04-63/45.1-45.7</t>
-  </si>
-  <si>
-    <t>1.qw cv mouseddq</t>
-  </si>
-  <si>
-    <t>3 จอ</t>
-  </si>
-  <si>
-    <t>7440-010-0001-04-63/88.1-88.5</t>
-  </si>
-  <si>
-    <t>2.เครื่องพิมพ์เลเซอร์</t>
-  </si>
-  <si>
-    <t>5 เครื่อง</t>
-  </si>
-  <si>
-    <t>คีย์บอร์ดใช้งานในห้องเรียน แป้นพิมพ์3000ปุ่ม รุ่น acerQH3000</t>
-  </si>
-  <si>
-    <t>กน.2020</t>
-  </si>
-  <si>
-    <t>4 ตัว</t>
-  </si>
-  <si>
-    <t>1,600.00</t>
-  </si>
-  <si>
-    <t>งบประมาณ58</t>
-  </si>
-  <si>
-    <t>7400-010-0002-05-59/28.1-28.5,28.8,28.11</t>
-  </si>
-  <si>
-    <t>คอมพิวเตอร์ all in one 2020 คอมพิวเตอร์
+    <t>250,000.00</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/28.1-28.5,28.11</t>
+  </si>
+  <si>
+    <t>1.คอมใช้เรียนเสริมA คอมพิวเตอร์
  รุ่น ACER6558</t>
   </si>
   <si>
-    <t>กพ220</t>
-  </si>
-  <si>
-    <t>7 เครื่อง</t>
-  </si>
-  <si>
-    <t>45,000.00</t>
-  </si>
-  <si>
-    <t>315,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/502-504</t>
-  </si>
-  <si>
-    <t>โต๊ะใช้ทำงานในห้องพัก</t>
-  </si>
-  <si>
-    <t>1 ตัว</t>
-  </si>
-  <si>
-    <t>1,800.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/29.1-29.3,29.5,29.9-29.11</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด45นิ้ว</t>
-  </si>
-  <si>
-    <t>7 จอ</t>
-  </si>
-  <si>
-    <t>36,000.00</t>
-  </si>
-  <si>
-    <t>252,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/33.1-33.2,33.5,33.3,33.9-33.10,33.4,33.6-33.8</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด48นิ้ว</t>
-  </si>
-  <si>
-    <t>56,000.00</t>
-  </si>
-  <si>
-    <t>168,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/90.1-90.2,90.4-90.6</t>
-  </si>
-  <si>
-    <t>5 จอ</t>
-  </si>
-  <si>
-    <t>29,000.00</t>
-  </si>
-  <si>
-    <t>145,000.00</t>
-  </si>
-  <si>
-    <t>87,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/99.1-99.3,99.6-99.7</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด50นิ้ว</t>
-  </si>
-  <si>
-    <t>7566-6006-45/66.1-66.4,66.6,66.9-66.10</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด60นิ้ว</t>
-  </si>
-  <si>
-    <t>29,200.00</t>
-  </si>
-  <si>
-    <t>204,400.00</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด80นิ้ว</t>
-  </si>
-  <si>
-    <t>4 จอ</t>
-  </si>
-  <si>
-    <t>116,800.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/44.1-44.5,44.7-44.9</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด30นิ้ว</t>
-  </si>
-  <si>
-    <t>8 จอ</t>
-  </si>
-  <si>
-    <t>232,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/111.2-111.4,111.8-111.12</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด90นิ้ว</t>
-  </si>
-  <si>
-    <t>233,600.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/222.1-222.2,222.5,222.9-222.10</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด420นิ้ว</t>
-  </si>
-  <si>
-    <t>146,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/333.1-333.3,333.6,333.9-333.12</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด490นิ้ว</t>
-  </si>
-  <si>
-    <t>7566-6006-45/444.1-444.4,444.6,444.9-444.10</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด4990นิ้ว</t>
-  </si>
-  <si>
-    <t>203,000.00</t>
+    <t>6 เครื่อง</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/702-704,706</t>
+  </si>
+  <si>
+    <t>2.ตู้เก็บเอกสารerA ตู้ทำด้วยเหล็กหนาพิเศษ</t>
+  </si>
+  <si>
+    <t>ชุดคอมในห้องทำงานA1 ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/29.1-29.5,29.11</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/802-804,806</t>
+  </si>
+  <si>
+    <t>1 ตู้</t>
+  </si>
+  <si>
+    <t>1.ตู้เก็บเอกสารerA ตู้ทำด้วยเหล็กหนาพิเศษ</t>
+  </si>
+  <si>
+    <t>3 ตู้</t>
+  </si>
+  <si>
+    <t>ชุดคอมพิวเตอร์พื้นฐาน ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>365,000.00</t>
+  </si>
+  <si>
+    <t>งบประมาณ60</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/31.1-31.6</t>
+  </si>
+  <si>
+    <t>1.คีย์บอร์ดAcer</t>
+  </si>
+  <si>
+    <t>6 ตัว</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/30.1-30.6</t>
+  </si>
+  <si>
+    <t>2.เมาส์Acer</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/21.1-21.5,21.11</t>
+  </si>
+  <si>
+    <t>คอมใช้เรียนเสริมA2 คอมพิวเตอร์
+ รุ่น ACER6558</t>
+  </si>
+  <si>
+    <t>7400-010-0002-05-59/902-904,906-909,923</t>
+  </si>
+  <si>
+    <t>ตู้เก็บเอกสารerA2 ตู้ทำด้วยเหล็กหนาพิเศษ</t>
+  </si>
+  <si>
+    <t>8 ตู้</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/44.1-44.9</t>
+  </si>
+  <si>
+    <t>ทดสอบimport o9</t>
+  </si>
+  <si>
+    <t>9 ตัว</t>
+  </si>
+  <si>
+    <t>2,700.00</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/45.1-45.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/46.1-46.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/47.1-47.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/48.1-48.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/49.1-49.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/50.1-50.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/52.1-52.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/53.1-53.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/54.1-54.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/55.1-55.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/56.1-56.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-61/57-59</t>
+  </si>
+  <si>
+    <t>ทดสอบimport o10</t>
+  </si>
+  <si>
+    <t>3 ตัว</t>
   </si>
 </sst>
 </file>
@@ -659,7 +633,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A5" sqref="A5:H5"/>
@@ -668,8 +642,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.306519" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="69.387817" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="71.744385" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="48.178711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="49.226074" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="24.613037" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.11438" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="27.231445" bestFit="true" customWidth="true" style="0"/>
@@ -725,467 +699,591 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3">
-        <v>400.0</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
-        <v>9</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300.0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300.0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="F23" s="3">
+        <v>300.0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="F24" s="3">
+        <v>300.0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="3">
+        <v>301.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>903.0</v>
+      </c>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
+++ b/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
   </si>
@@ -228,6 +228,186 @@
   </si>
   <si>
     <t>3 ตัว</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-60/61.1-61.9</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-61/62-63</t>
+  </si>
+  <si>
+    <t>2 ตัว</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-62/60.2,60.9</t>
+  </si>
+  <si>
+    <t>ทดสอบimport o11</t>
+  </si>
+  <si>
+    <t>7100-6985-6645-62/65.2,65.9</t>
+  </si>
+  <si>
+    <t>ชุดเครื่องพิมพ์เพื่อการศึกษา ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>7566-6006-45/509-510 วท.</t>
+  </si>
+  <si>
+    <t>1.nubwo_mouse mouse</t>
+  </si>
+  <si>
+    <t>/.1-0.3</t>
+  </si>
+  <si>
+    <t>2.เครื่องพิมพ์เลเซอร์ cv</t>
+  </si>
+  <si>
+    <t>2 เครื่อง</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/308.1-308.2 วท.</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด40นิ้ว5</t>
+  </si>
+  <si>
+    <t>2 จอ</t>
+  </si>
+  <si>
+    <t>29,000.00</t>
+  </si>
+  <si>
+    <t>58,000.00</t>
+  </si>
+  <si>
+    <t>ชุดจอภาพขนาด40นิ้ว ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>7566-6006-45/660-665,667-670</t>
+  </si>
+  <si>
+    <t>1.จอภาพDELLขนาด40นิ้ว9</t>
+  </si>
+  <si>
+    <t>10 จอ</t>
+  </si>
+  <si>
+    <t>2.เครื่องพิมพ์เลเซอร์ mouse</t>
+  </si>
+  <si>
+    <t>1 จอ</t>
+  </si>
+  <si>
+    <t>9,555.00</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/99.1-99.3 วท.</t>
+  </si>
+  <si>
+    <t>1.จอภาพDELLขนาด40นิ้ว</t>
+  </si>
+  <si>
+    <t>3 จอ</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/111.1-111.3 วท.</t>
+  </si>
+  <si>
+    <t>2.เครื่องพิมพ์เลเซอร์</t>
+  </si>
+  <si>
+    <t>7566-6006-45/1100-1103</t>
+  </si>
+  <si>
+    <t>4 เครื่อง</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/2002.1-2002.3,2002.5</t>
+  </si>
+  <si>
+    <t>1.LABTOPmsi66</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/2001.1-2001.5</t>
+  </si>
+  <si>
+    <t>2.LABTOPmsi9</t>
+  </si>
+  <si>
+    <t>5 เครื่อง</t>
+  </si>
+  <si>
+    <t>7566-6006-45/1998-2000</t>
+  </si>
+  <si>
+    <t>3.จอภาพDELLขนาด40นิ้ว8</t>
+  </si>
+  <si>
+    <t>3 ค่าว่าง</t>
+  </si>
+  <si>
+    <t>7566-6006-45/209-210</t>
+  </si>
+  <si>
+    <t>เครื่องพิมพ์เลเซอร์ mouseddq</t>
+  </si>
+  <si>
+    <t>35,000.00</t>
+  </si>
+  <si>
+    <t>70,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/408-410</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด40นิ้ว</t>
+  </si>
+  <si>
+    <t>3 เครื่อง</t>
+  </si>
+  <si>
+    <t>87,000.00</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/2.1-2.2</t>
+  </si>
+  <si>
+    <t>เครื่องพิมพ์เลเซอร์ mouse er</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/6.1-6.9</t>
+  </si>
+  <si>
+    <t>nubwo_mouse mouse mouseddq</t>
+  </si>
+  <si>
+    <t>29,200.00</t>
+  </si>
+  <si>
+    <t>262,800.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/120-121</t>
+  </si>
+  <si>
+    <t>เครื่องพิมพ์เลเซอร์ cv</t>
+  </si>
+  <si>
+    <t>2 ค่าว่าง</t>
+  </si>
+  <si>
+    <t>58,400.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/131,139</t>
   </si>
 </sst>
 </file>
@@ -633,7 +813,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A5" sqref="A5:H5"/>
@@ -1284,6 +1464,511 @@
         <v>903.0</v>
       </c>
       <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="3">
+        <v>300.0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3">
+        <v>301.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>602.0</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="3">
+        <v>302.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>605.0</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="3">
+        <v>302.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>605.0</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4">
+        <v>29</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4">
+        <v>30</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4">
+        <v>31</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
+++ b/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
   </si>
@@ -136,6 +136,36 @@
   </si>
   <si>
     <t>3.เครื่องพิมพ์เลเซอร์xr</t>
+  </si>
+  <si>
+    <t>7440-010-0001-04-63/44.1-44.5 วท.</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด40นิ้วasd cv</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>29,200.00</t>
+  </si>
+  <si>
+    <t>146,000.00</t>
+  </si>
+  <si>
+    <t>7566-6006-45/1998.1-1998.2,1998.9 วท.</t>
+  </si>
+  <si>
+    <t>nubwo_mouseก er ss</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>29,000.00</t>
+  </si>
+  <si>
+    <t>87,000.00</t>
   </si>
 </sst>
 </file>
@@ -541,7 +571,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A5" sqref="A5:H5"/>
@@ -550,7 +580,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.306519" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="42.287292" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="44.512939" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="47.000427" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="24.613037" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.11438" bestFit="true" customWidth="true" style="0"/>
@@ -736,6 +766,58 @@
       </c>
       <c r="E12" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
+++ b/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
   </si>
@@ -93,79 +93,40 @@
     <t>งบประมาณ69</t>
   </si>
   <si>
-    <t>7440-010-0001-04-63/26.1-26.3</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด40นิ้ว</t>
-  </si>
-  <si>
-    <t>3 ตัว</t>
-  </si>
-  <si>
-    <t>1,500.00</t>
-  </si>
-  <si>
-    <t>ชุดเครื่องพิมพ์เพื่อการศึกษา ประกอบด้วย</t>
+    <t>เอกสาร ประกอบด้วย</t>
   </si>
   <si>
     <t>1 ชุด</t>
   </si>
   <si>
-    <t>365,000.00</t>
-  </si>
-  <si>
-    <t>7440-010-0001-04-63/14.1,14.3-14.6</t>
-  </si>
-  <si>
-    <t>1.เครื่องพิมพ์เลเซอร์ab</t>
-  </si>
-  <si>
-    <t>5 ตัว</t>
-  </si>
-  <si>
-    <t>7440-010-0001-04-63/12.1-12.2</t>
-  </si>
-  <si>
-    <t>2.เครื่องพิมพ์เลเซอร์ty</t>
-  </si>
-  <si>
-    <t>2 เครื่อง</t>
-  </si>
-  <si>
-    <t>7440-010-0001-04-63/34.1-34.5</t>
-  </si>
-  <si>
-    <t>3.เครื่องพิมพ์เลเซอร์xr</t>
-  </si>
-  <si>
-    <t>7440-010-0001-04-63/44.1-44.5 วท.</t>
-  </si>
-  <si>
-    <t>จอภาพDELLขนาด40นิ้วasd cv</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>29,200.00</t>
-  </si>
-  <si>
-    <t>146,000.00</t>
-  </si>
-  <si>
-    <t>7566-6006-45/1998.1-1998.2,1998.9 วท.</t>
-  </si>
-  <si>
-    <t>nubwo_mouseก er ss</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>29,000.00</t>
-  </si>
-  <si>
-    <t>87,000.00</t>
+    <t>200,000.00</t>
+  </si>
+  <si>
+    <t>111/1.1-1.2 1</t>
+  </si>
+  <si>
+    <t>1.เอกสาร แผ่น 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t>พัดลม ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>222/222</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t>121/1-2 1</t>
+  </si>
+  <si>
+    <t>1.พัดลม ใบพัด 2</t>
+  </si>
+  <si>
+    <t>2 พัดลมติดเพดาน</t>
   </si>
 </sst>
 </file>
@@ -571,7 +532,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A5" sqref="A5:H5"/>
@@ -580,8 +541,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.306519" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="44.512939" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="47.000427" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="42.287292" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="45.691223" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="24.613037" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.11438" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="27.231445" bestFit="true" customWidth="true" style="0"/>
@@ -689,135 +650,66 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="6">
+        <v>111</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3">
-        <v>500.0</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
+++ b/Excel_v/excel/ทะเบียนครุภัณฑ์.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
   </si>
@@ -108,7 +108,7 @@
     <t>1.เอกสาร แผ่น 1</t>
   </si>
   <si>
-    <t xml:space="preserve">2 </t>
+    <t>2 ค่าว่าง</t>
   </si>
   <si>
     <t>พัดลม ประกอบด้วย</t>
@@ -126,7 +126,16 @@
     <t>1.พัดลม ใบพัด 2</t>
   </si>
   <si>
-    <t>2 พัดลมติดเพดาน</t>
+    <t>7440-010-0001-04-63/29.1-29.2 วท.</t>
+  </si>
+  <si>
+    <t>จอภาพDELLขนาด40นิ้ว</t>
+  </si>
+  <si>
+    <t>2 ตัว</t>
+  </si>
+  <si>
+    <t>1,000.00</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A5" sqref="A5:H5"/>
@@ -709,7 +718,33 @@
         <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3">
+        <v>500.0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
